--- a/stripped/S60003.mes.bin.xlsx
+++ b/stripped/S60003.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB12853-8A55-4818-9D80-E71EF5A42E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A10AA4-118D-4723-A414-2999A6D3A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="6510" windowWidth="33855" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60003.mes.bin" sheetId="1" r:id="rId1"/>

--- a/stripped/S60003.mes.bin.xlsx
+++ b/stripped/S60003.mes.bin.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A10AA4-118D-4723-A414-2999A6D3A78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A90D4F-0EBE-4EF7-BBCF-726AABC294C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33810" yWindow="0" windowWidth="33900" windowHeight="21090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="5460" windowWidth="50850" windowHeight="21795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S60003.mes.bin" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="135">
   <si>
     <t>Status</t>
   </si>
@@ -194,6 +194,9 @@
     <t>87</t>
   </si>
   <si>
+    <t xml:space="preserve"> Her voice\nechoes quietly in the shadowy parking lot, lit only by\nstreetlights.</t>
+  </si>
+  <si>
     <t>89</t>
   </si>
   <si>
@@ -209,7 +212,7 @@
     <t>95</t>
   </si>
   <si>
-    <t>^This is for Yuki-san?^</t>
+    <t>^This is for Yuki?^</t>
   </si>
   <si>
     <t>97</t>
@@ -266,7 +269,7 @@
     <t>129</t>
   </si>
   <si>
-    <t>^That's not... Yuki-san would never...!^</t>
+    <t>^That's not... Yuki would never...!^</t>
   </si>
   <si>
     <t>131</t>
@@ -321,6 +324,9 @@
   </si>
   <si>
     <t>165</t>
+  </si>
+  <si>
+    <t>She stands there, backlit by the streetlights.</t>
   </si>
   <si>
     <t>167</t>
@@ -826,7 +832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C41" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1526,7 +1534,9 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1535,7 +1545,7 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
@@ -1551,7 +1561,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1565,7 +1575,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
@@ -1573,7 +1583,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1583,7 +1593,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
@@ -1591,7 +1601,7 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -1601,7 +1611,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
@@ -1617,7 +1627,7 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1631,7 +1641,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1645,7 +1655,7 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1659,7 +1669,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1673,7 +1683,7 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1687,7 +1697,7 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
@@ -1703,7 +1713,7 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1717,7 +1727,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1731,7 +1741,7 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1745,7 +1755,7 @@
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
@@ -1761,7 +1771,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
@@ -1777,7 +1787,7 @@
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
@@ -1793,7 +1803,7 @@
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
@@ -1809,7 +1819,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1823,7 +1833,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
@@ -1831,7 +1841,7 @@
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -1841,7 +1851,7 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
@@ -1849,7 +1859,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -1859,7 +1869,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
@@ -1875,7 +1885,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1889,7 +1899,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
@@ -1905,7 +1915,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1919,7 +1929,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1933,7 +1943,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1947,7 +1957,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1961,7 +1971,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1975,7 +1985,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
@@ -1991,7 +2001,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
@@ -2007,7 +2017,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4" t="s">
@@ -2023,7 +2033,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2037,7 +2047,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2051,7 +2061,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -2065,7 +2075,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2079,7 +2089,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -2093,7 +2103,7 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2107,12 +2117,14 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -2121,7 +2133,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4" t="s">
@@ -2137,7 +2149,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2151,7 +2163,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2165,7 +2177,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2179,7 +2191,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
@@ -2195,7 +2207,7 @@
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -2209,7 +2221,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2223,7 +2235,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2237,7 +2249,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2251,7 +2263,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2265,7 +2277,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2279,7 +2291,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2293,7 +2305,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2307,7 +2319,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
@@ -2323,7 +2335,7 @@
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2337,7 +2349,7 @@
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2351,7 +2363,7 @@
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4" t="s">
@@ -2367,7 +2379,7 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2381,7 +2393,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -2395,7 +2407,7 @@
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2409,7 +2421,7 @@
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -2423,7 +2435,7 @@
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -2437,7 +2449,7 @@
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -2451,7 +2463,7 @@
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2465,7 +2477,7 @@
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -2473,7 +2485,7 @@
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -2483,7 +2495,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2497,7 +2509,7 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -2511,7 +2523,7 @@
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2525,7 +2537,7 @@
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -2539,7 +2551,7 @@
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
